--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
     <t>* As at 5 April 2011.</t>
   </si>
   <si>
-    <t>Public and Private General Education Schools in C. Batumi</t>
+    <t>Public and Private General Education Schools in C. Batumi  municipality</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,7 +555,7 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
@@ -770,11 +768,10 @@
       <c r="E8" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
@@ -1,30 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Adjara A.R\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView windowWidth="19185" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="C. Batumi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>Public and Private General Education Schools in C. Batumi  municipality</t>
+  </si>
+  <si>
+    <t>(At the beginning of the school year)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -41,118 +58,323 @@
     <t>2021/2022</t>
   </si>
   <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>(At the beginning of the school year)</t>
-  </si>
-  <si>
-    <t>General education  schools, unit</t>
-  </si>
-  <si>
-    <t>Number of pupils, persons</t>
-  </si>
-  <si>
-    <t>Number of teachers, persons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: Ministry of Education and Science of Georgia.
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>General education  schools (unit)</t>
+  </si>
+  <si>
+    <t>Number of pupils (persons)</t>
+  </si>
+  <si>
+    <t>Number of secondary school graduates  (persons)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Of which:   Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Boy</t>
+  </si>
+  <si>
+    <t>Number of secondary school graduates per 1000 population</t>
+  </si>
+  <si>
+    <t>Number of teachers (persons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Of which:    Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Men</t>
+  </si>
+  <si>
+    <t>* As at 5 April 2011.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ministry of Education and Science of Georgia.
 </t>
-  </si>
-  <si>
-    <t>* As at 5 April 2011.</t>
-  </si>
-  <si>
-    <t>Public and Private General Education Schools in C. Batumi  municipality</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ##0"/>
+    <numFmt numFmtId="179" formatCode=".\ #;"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +387,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -179,7 +587,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,10 +595,106 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,83 +702,300 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal 2 2" xfId="50"/>
+    <cellStyle name="Normal 3" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -323,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +1079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,248 +1253,558 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.7109375" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="14" width="10.7142857142857" style="2" customWidth="1"/>
+    <col min="15" max="18" width="12" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+    <row r="1" ht="51" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="N3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>4</v>
+    <row r="4" ht="21" customHeight="1" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12">
+        <v>46</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13">
+        <v>44</v>
+      </c>
+      <c r="J4" s="13">
+        <v>45</v>
+      </c>
+      <c r="K4" s="13">
+        <v>44</v>
+      </c>
+      <c r="L4" s="13">
+        <v>44</v>
+      </c>
+      <c r="M4" s="13">
+        <v>44</v>
+      </c>
+      <c r="N4" s="13">
+        <v>44</v>
+      </c>
+      <c r="O4" s="13">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4">
-        <v>46</v>
-      </c>
-      <c r="G4" s="14">
-        <v>45</v>
-      </c>
-      <c r="H4" s="14">
-        <v>45</v>
-      </c>
-      <c r="I4" s="14">
-        <v>44</v>
-      </c>
-      <c r="J4" s="14">
-        <v>45</v>
-      </c>
-      <c r="K4" s="14">
-        <v>44</v>
-      </c>
-      <c r="L4" s="14">
-        <v>44</v>
-      </c>
-      <c r="M4" s="14">
-        <v>44</v>
+    <row r="5" ht="21" customHeight="1" spans="1:15">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15">
+        <v>22573</v>
+      </c>
+      <c r="C5" s="16">
+        <v>25740</v>
+      </c>
+      <c r="D5" s="17">
+        <v>25625</v>
+      </c>
+      <c r="E5" s="16">
+        <v>25698</v>
+      </c>
+      <c r="F5" s="16">
+        <v>26621</v>
+      </c>
+      <c r="G5" s="17">
+        <v>27239</v>
+      </c>
+      <c r="H5" s="17">
+        <v>28612</v>
+      </c>
+      <c r="I5" s="17">
+        <v>29843</v>
+      </c>
+      <c r="J5" s="17">
+        <v>31497</v>
+      </c>
+      <c r="K5" s="17">
+        <v>32962</v>
+      </c>
+      <c r="L5" s="17">
+        <v>34651</v>
+      </c>
+      <c r="M5" s="17">
+        <v>36592</v>
+      </c>
+      <c r="N5" s="17">
+        <v>39483</v>
+      </c>
+      <c r="O5" s="28">
+        <v>40835</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
-        <v>22573</v>
-      </c>
-      <c r="C5" s="7">
-        <v>25740</v>
-      </c>
-      <c r="D5" s="8">
-        <v>25625</v>
-      </c>
-      <c r="E5" s="7">
-        <v>25698</v>
-      </c>
-      <c r="F5" s="7">
-        <v>26621</v>
-      </c>
-      <c r="G5" s="15">
-        <v>27239</v>
-      </c>
-      <c r="H5" s="15">
-        <v>28612</v>
-      </c>
-      <c r="I5" s="15">
-        <v>29843</v>
-      </c>
-      <c r="J5" s="15">
-        <v>31497</v>
-      </c>
-      <c r="K5" s="15">
-        <v>32962</v>
-      </c>
-      <c r="L5" s="15">
-        <v>34651</v>
-      </c>
-      <c r="M5" s="15">
-        <v>36592</v>
+    <row r="6" ht="31.5" customHeight="1" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1863</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1502</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1502</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1706</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1706</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1560</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1718</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1840</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1840</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1892</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2350</v>
+      </c>
+      <c r="N6" s="29">
+        <v>2280</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="16">
+    <row r="7" ht="21" customHeight="1" spans="1:15">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="16">
+        <v>981</v>
+      </c>
+      <c r="D7" s="17">
+        <v>796</v>
+      </c>
+      <c r="E7" s="16">
+        <v>864</v>
+      </c>
+      <c r="F7" s="16">
+        <v>855</v>
+      </c>
+      <c r="G7" s="17">
+        <v>872</v>
+      </c>
+      <c r="H7" s="17">
+        <v>787</v>
+      </c>
+      <c r="I7" s="17">
+        <v>894</v>
+      </c>
+      <c r="J7" s="17">
+        <v>932</v>
+      </c>
+      <c r="K7" s="17">
+        <v>981</v>
+      </c>
+      <c r="L7" s="17">
+        <v>926</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1181</v>
+      </c>
+      <c r="N7" s="29">
+        <v>1096</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16">
+        <v>882</v>
+      </c>
+      <c r="D8" s="17">
+        <v>706</v>
+      </c>
+      <c r="E8" s="16">
+        <v>782</v>
+      </c>
+      <c r="F8" s="16">
+        <v>851</v>
+      </c>
+      <c r="G8" s="17">
+        <v>853</v>
+      </c>
+      <c r="H8" s="17">
+        <v>773</v>
+      </c>
+      <c r="I8" s="17">
+        <v>824</v>
+      </c>
+      <c r="J8" s="17">
+        <v>908</v>
+      </c>
+      <c r="K8" s="17">
+        <v>972</v>
+      </c>
+      <c r="L8" s="17">
+        <v>966</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1169</v>
+      </c>
+      <c r="N8" s="29">
+        <v>1184</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="29.25" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20">
+        <v>15.2870945904363</v>
+      </c>
+      <c r="D9" s="21">
+        <v>10.6518401372967</v>
+      </c>
+      <c r="E9" s="20">
+        <v>9.9329427169442</v>
+      </c>
+      <c r="F9" s="20">
+        <v>11.2318124958852</v>
+      </c>
+      <c r="G9" s="21">
+        <v>11.0992196064526</v>
+      </c>
+      <c r="H9" s="21">
+        <v>9.95574162297734</v>
+      </c>
+      <c r="I9" s="21">
+        <v>10.7703158059713</v>
+      </c>
+      <c r="J9" s="21">
+        <v>11.349582563587</v>
+      </c>
+      <c r="K9" s="21">
+        <v>11.1689793738087</v>
+      </c>
+      <c r="L9" s="21">
+        <v>11.2908375330833</v>
+      </c>
+      <c r="M9" s="21">
+        <v>13.7766079060142</v>
+      </c>
+      <c r="N9" s="30">
+        <v>12.9204091462896</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:15">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15">
         <v>2133</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I10" s="15">
         <v>2286</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J10" s="15">
         <v>2355</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K10" s="15">
         <v>2338</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L10" s="15">
         <v>2291</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M10" s="15">
         <v>2382</v>
       </c>
+      <c r="N10" s="15">
+        <v>2441</v>
+      </c>
+      <c r="O10" s="15">
+        <v>2718</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+    <row r="11" ht="21" customHeight="1" spans="1:15">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1959</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2100</v>
+      </c>
+      <c r="J11" s="15">
+        <v>2166</v>
+      </c>
+      <c r="K11" s="15">
+        <v>2147</v>
+      </c>
+      <c r="L11" s="15">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="15">
+        <v>2192</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2248</v>
+      </c>
+      <c r="O11" s="15">
+        <v>2480</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+    <row r="12" ht="21" customHeight="1" spans="1:15">
+      <c r="A12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="23">
+        <v>174</v>
+      </c>
+      <c r="I12" s="23">
+        <v>186</v>
+      </c>
+      <c r="J12" s="23">
+        <v>189</v>
+      </c>
+      <c r="K12" s="23">
+        <v>191</v>
+      </c>
+      <c r="L12" s="23">
+        <v>191</v>
+      </c>
+      <c r="M12" s="23">
+        <v>190</v>
+      </c>
+      <c r="N12" s="23">
+        <v>193</v>
+      </c>
+      <c r="O12" s="23">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Adjara A.R/C. Batumi.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.139\d$\xampp\htdocs\regions\municipal\ENG\Education\General Educational Institution\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C23D27-43FB-4543-A98B-7A052CA9E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004FC53-4987-4499-AE79-C2562F8388A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C. Batumi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in C. Batumi  municipality</t>
   </si>
@@ -140,7 +129,32 @@
     <t>Number of graduates of the basic level (persons)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "..." - Data is missing or confidential</t>
+    </r>
+  </si>
+  <si>
+    <t>2024/2025</t>
   </si>
 </sst>
 </file>
@@ -151,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +249,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -649,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,12 +679,12 @@
   <cols>
     <col min="1" max="1" width="34.28515625" style="1" customWidth="1"/>
     <col min="2" max="14" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1">
+    <row r="1" spans="1:16" ht="51" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -679,7 +701,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -696,7 +718,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1">
+    <row r="3" spans="1:16" ht="21" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -740,8 +762,11 @@
       <c r="O3" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1">
+      <c r="P3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -787,8 +812,11 @@
       <c r="O4" s="12">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1">
+      <c r="P4" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -834,8 +862,11 @@
       <c r="O5" s="16">
         <v>40835</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25">
+      <c r="P5" s="16">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26.25">
       <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
@@ -879,11 +910,14 @@
         <f>N7+N8</f>
         <v>3398</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1">
+      <c r="O6" s="14">
+        <v>3674</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -926,11 +960,14 @@
       <c r="N7" s="14">
         <v>1622</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1">
+      <c r="O7" s="14">
+        <v>1763</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -973,11 +1010,14 @@
       <c r="N8" s="14">
         <v>1776</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="26.25">
+      <c r="O8" s="14">
+        <v>1911</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="26.25">
       <c r="A9" s="22" t="s">
         <v>28</v>
       </c>
@@ -985,46 +1025,50 @@
         <v>29</v>
       </c>
       <c r="C9" s="14">
-        <v>1076</v>
+        <v>2264</v>
       </c>
       <c r="D9" s="14">
-        <v>1016</v>
+        <v>2070</v>
       </c>
       <c r="E9" s="14">
-        <v>958</v>
+        <v>1971</v>
       </c>
       <c r="F9" s="14">
-        <v>1002</v>
+        <v>2141</v>
       </c>
       <c r="G9" s="14">
-        <v>1042</v>
+        <v>2130</v>
       </c>
       <c r="H9" s="14">
-        <v>1058</v>
+        <v>2168</v>
       </c>
       <c r="I9" s="14">
-        <v>1026</v>
+        <v>2122</v>
       </c>
       <c r="J9" s="14">
-        <v>1171</v>
+        <v>2420</v>
       </c>
       <c r="K9" s="14">
-        <v>1185</v>
+        <v>2526</v>
       </c>
       <c r="L9" s="14">
-        <v>1130</v>
+        <v>2362</v>
       </c>
       <c r="M9" s="14">
-        <v>1228</v>
+        <v>2516</v>
       </c>
       <c r="N9" s="14">
-        <v>1335</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1">
+        <f>N10+N11</f>
+        <v>2785</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2878</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1032,46 +1076,49 @@
         <v>29</v>
       </c>
       <c r="C10" s="14">
-        <v>1188</v>
+        <v>1076</v>
       </c>
       <c r="D10" s="14">
-        <v>1054</v>
+        <v>1016</v>
       </c>
       <c r="E10" s="14">
-        <v>1013</v>
+        <v>958</v>
       </c>
       <c r="F10" s="14">
-        <v>1139</v>
+        <v>1002</v>
       </c>
       <c r="G10" s="14">
-        <v>1088</v>
+        <v>1042</v>
       </c>
       <c r="H10" s="14">
-        <v>1110</v>
+        <v>1058</v>
       </c>
       <c r="I10" s="14">
-        <v>1096</v>
+        <v>1026</v>
       </c>
       <c r="J10" s="14">
-        <v>1249</v>
+        <v>1171</v>
       </c>
       <c r="K10" s="14">
-        <v>1341</v>
+        <v>1185</v>
       </c>
       <c r="L10" s="14">
-        <v>1232</v>
+        <v>1130</v>
       </c>
       <c r="M10" s="14">
-        <v>1288</v>
+        <v>1228</v>
       </c>
       <c r="N10" s="14">
-        <v>1450</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1">
+        <v>1335</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1408</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1079,47 +1126,49 @@
         <v>29</v>
       </c>
       <c r="C11" s="14">
-        <v>2264</v>
+        <v>1188</v>
       </c>
       <c r="D11" s="14">
-        <v>2070</v>
+        <v>1054</v>
       </c>
       <c r="E11" s="14">
-        <v>1971</v>
+        <v>1013</v>
       </c>
       <c r="F11" s="14">
-        <v>2141</v>
+        <v>1139</v>
       </c>
       <c r="G11" s="14">
-        <v>2130</v>
+        <v>1088</v>
       </c>
       <c r="H11" s="14">
-        <v>2168</v>
+        <v>1110</v>
       </c>
       <c r="I11" s="14">
-        <v>2122</v>
+        <v>1096</v>
       </c>
       <c r="J11" s="14">
-        <v>2420</v>
+        <v>1249</v>
       </c>
       <c r="K11" s="14">
-        <v>2526</v>
+        <v>1341</v>
       </c>
       <c r="L11" s="14">
-        <v>2362</v>
+        <v>1232</v>
       </c>
       <c r="M11" s="14">
-        <v>2516</v>
+        <v>1288</v>
       </c>
       <c r="N11" s="14">
-        <f>N9+N10</f>
-        <v>2785</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.5" customHeight="1">
+        <v>1450</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1470</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
@@ -1127,46 +1176,50 @@
         <v>29</v>
       </c>
       <c r="C12" s="14">
-        <v>996</v>
+        <v>1861</v>
       </c>
       <c r="D12" s="14">
-        <v>1025</v>
+        <v>1965</v>
       </c>
       <c r="E12" s="14">
-        <v>835</v>
+        <v>1576</v>
       </c>
       <c r="F12" s="14">
-        <v>833</v>
+        <v>1660</v>
       </c>
       <c r="G12" s="14">
-        <v>921</v>
+        <v>1844</v>
       </c>
       <c r="H12" s="14">
-        <v>814</v>
+        <v>1612</v>
       </c>
       <c r="I12" s="14">
-        <v>899</v>
+        <v>1731</v>
       </c>
       <c r="J12" s="14">
-        <v>932</v>
+        <v>1840</v>
       </c>
       <c r="K12" s="14">
-        <v>978</v>
+        <v>1947</v>
       </c>
       <c r="L12" s="14">
-        <v>926</v>
+        <v>1892</v>
       </c>
       <c r="M12" s="14">
-        <v>1181</v>
+        <v>2350</v>
       </c>
       <c r="N12" s="14">
-        <v>1096</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1">
+        <f>N13+N14</f>
+        <v>2280</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2192</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1174,46 +1227,49 @@
         <v>29</v>
       </c>
       <c r="C13" s="14">
-        <v>865</v>
+        <v>996</v>
       </c>
       <c r="D13" s="14">
-        <v>940</v>
+        <v>1025</v>
       </c>
       <c r="E13" s="14">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="F13" s="14">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="G13" s="14">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H13" s="14">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="I13" s="14">
-        <v>832</v>
+        <v>899</v>
       </c>
       <c r="J13" s="14">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="K13" s="14">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="L13" s="14">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="M13" s="14">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="N13" s="14">
-        <v>1184</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1">
+        <v>1096</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1064</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -1221,47 +1277,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="14">
-        <v>1861</v>
+        <v>865</v>
       </c>
       <c r="D14" s="14">
-        <v>1965</v>
+        <v>940</v>
       </c>
       <c r="E14" s="14">
-        <v>1576</v>
+        <v>741</v>
       </c>
       <c r="F14" s="14">
-        <v>1660</v>
+        <v>827</v>
       </c>
       <c r="G14" s="14">
-        <v>1844</v>
+        <v>923</v>
       </c>
       <c r="H14" s="14">
-        <v>1612</v>
+        <v>798</v>
       </c>
       <c r="I14" s="14">
-        <v>1731</v>
+        <v>832</v>
       </c>
       <c r="J14" s="14">
-        <v>1840</v>
+        <v>908</v>
       </c>
       <c r="K14" s="14">
-        <v>1947</v>
+        <v>969</v>
       </c>
       <c r="L14" s="14">
-        <v>1892</v>
+        <v>966</v>
       </c>
       <c r="M14" s="14">
-        <v>2350</v>
+        <v>1169</v>
       </c>
       <c r="N14" s="14">
-        <f>N12+N13</f>
-        <v>2280</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="29.25" customHeight="1">
+        <v>1184</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1128</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29.25" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -1304,11 +1362,14 @@
       <c r="N15" s="23">
         <v>12.920409146289632</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1">
+      <c r="O15" s="23">
+        <v>12.6</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
@@ -1354,8 +1415,11 @@
       <c r="O16" s="14">
         <v>2718</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="P16" s="14">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -1401,8 +1465,11 @@
       <c r="O17" s="14">
         <v>2480</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="P17" s="14">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>24</v>
       </c>
@@ -1448,15 +1515,18 @@
       <c r="O18" s="19">
         <v>238</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+      <c r="P18" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
@@ -1465,15 +1535,17 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="20"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="20"/>
     </row>
   </sheetData>
